--- a/Projet_final.xlsx
+++ b/Projet_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanto\Université Laval\OptiqueExperimentale_FB_FAD_PHY5 - General\labV_projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E50F64A-5892-4CDA-AF5A-23486F9DD4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F24B50-4EDF-46B6-9B1E-37E42D9663FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4185" windowWidth="29040" windowHeight="15720" xr2:uid="{D13B3347-E854-EE4A-AE6A-101839CB36E4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D13B3347-E854-EE4A-AE6A-101839CB36E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Partie 1" sheetId="1" r:id="rId1"/>
@@ -275,9 +275,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -291,6 +288,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2767,7 +2767,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Partie 3b'!$F$3:$F$9</c:f>
+              <c:f>'Partie 3b'!$E$3:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2797,7 +2797,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Partie 3b'!$G$3:$G$9</c:f>
+              <c:f>'Partie 3b'!$F$3:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3096,7 +3096,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Partie 3b'!$I$3:$I$9</c:f>
+              <c:f>'Partie 3b'!$H$3:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3126,7 +3126,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Partie 3b'!$J$3:$J$9</c:f>
+              <c:f>'Partie 3b'!$I$3:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -8421,9 +8421,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6121FCC-B824-8743-B68A-612C2150C696}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -8493,7 +8493,7 @@
         <v>0.7147</v>
       </c>
       <c r="F3" s="1">
-        <f>H3-E3</f>
+        <f t="shared" ref="F3:F11" si="1">H3-E3</f>
         <v>6.9000000000000172E-3</v>
       </c>
       <c r="H3" s="3">
@@ -8518,7 +8518,7 @@
         <v>1.3274999999999999</v>
       </c>
       <c r="F4" s="1">
-        <f>H4-E4</f>
+        <f t="shared" si="1"/>
         <v>6.4000000000001833E-3</v>
       </c>
       <c r="H4" s="3">
@@ -8543,7 +8543,7 @@
         <v>1.8844000000000001</v>
       </c>
       <c r="F5" s="1">
-        <f>H5-E5</f>
+        <f t="shared" si="1"/>
         <v>9.1999999999998749E-3</v>
       </c>
       <c r="H5" s="3">
@@ -8568,7 +8568,7 @@
         <v>2.5638999999999998</v>
       </c>
       <c r="F6" s="1">
-        <f>H6-E6</f>
+        <f t="shared" si="1"/>
         <v>1.3400000000000301E-2</v>
       </c>
       <c r="H6" s="4">
@@ -8593,7 +8593,7 @@
         <v>2.9095</v>
       </c>
       <c r="F7" s="1">
-        <f>H7-E7</f>
+        <f t="shared" si="1"/>
         <v>1.7700000000000049E-2</v>
       </c>
       <c r="H7" s="4">
@@ -8618,7 +8618,7 @@
         <v>3.0674000000000001</v>
       </c>
       <c r="F8" s="1">
-        <f>H8-E8</f>
+        <f t="shared" si="1"/>
         <v>2.0299999999999763E-2</v>
       </c>
       <c r="H8" s="4">
@@ -8643,7 +8643,7 @@
         <v>3.1438000000000001</v>
       </c>
       <c r="F9" s="1">
-        <f>H9-E9</f>
+        <f t="shared" si="1"/>
         <v>2.2199999999999775E-2</v>
       </c>
       <c r="H9" s="4">
@@ -8668,7 +8668,7 @@
         <v>3.1817000000000002</v>
       </c>
       <c r="F10" s="1">
-        <f>H10-E10</f>
+        <f t="shared" si="1"/>
         <v>2.2999999999999687E-2</v>
       </c>
       <c r="H10" s="4">
@@ -8693,76 +8693,12 @@
         <v>3.2122999999999999</v>
       </c>
       <c r="F11" s="1">
-        <f>H11-E11</f>
+        <f t="shared" si="1"/>
         <v>2.3400000000000087E-2</v>
       </c>
       <c r="H11" s="4">
         <v>3.2357</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8787,22 +8723,22 @@
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="14"/>
+      <c r="I1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
@@ -9274,10 +9210,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED6821C-F816-8A49-96A1-051455C3E17C}">
-  <dimension ref="B1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
@@ -9286,278 +9222,275 @@
     <col min="10" max="10" width="11.640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
       <c r="B3" s="1">
+        <v>1.8E-3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.94359999999999999</v>
+      </c>
+      <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
-        <v>1.8E-3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.94359999999999999</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="F3" s="8">
+        <f>(D3-B3)/C3</f>
+        <v>261.61111111111109</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.16209999999999999</v>
+      </c>
+      <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="8">
-        <f>(E3-C3)/D3</f>
-        <v>261.61111111111109</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.16209999999999999</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
-        <f t="shared" ref="J3:J9" si="0">(H3-C3)/D3</f>
+      <c r="I3" s="8">
+        <f t="shared" ref="I3:I9" si="0">(G3-B3)/C3</f>
         <v>44.527777777777779</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
       <c r="B4" s="1">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.94440000000000002</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="F4" s="8">
+        <f>(D4-B4)/C4</f>
+        <v>196.1875</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.15790000000000001</v>
+      </c>
+      <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="8">
-        <f>(E4-C4)/D4</f>
-        <v>196.1875</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.15790000000000001</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="8">
+      <c r="I4" s="8">
         <f t="shared" si="0"/>
         <v>32.333333333333336</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
       <c r="B5" s="1">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.90449999999999997</v>
+      </c>
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>7.7999999999999996E-3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.90449999999999997</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="F5" s="8">
+        <f>(D5-B5)/C5</f>
+        <v>115.38461538461539</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.15609999999999999</v>
+      </c>
+      <c r="H5" s="1">
         <v>2</v>
       </c>
-      <c r="G5" s="8">
-        <f>(E5-C5)/D5</f>
-        <v>115.38461538461539</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.15609999999999999</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2</v>
-      </c>
-      <c r="J5" s="8">
+      <c r="I5" s="8">
         <f t="shared" si="0"/>
         <v>19.435897435897434</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
       <c r="B6" s="1">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.12E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.12E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.99960000000000004</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="F6" s="8">
+        <f>(D6-B6)/C6</f>
+        <v>88.651785714285722</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.1547</v>
+      </c>
+      <c r="H6" s="1">
         <v>3</v>
       </c>
-      <c r="G6" s="8">
-        <f>(E6-C6)/D6</f>
-        <v>88.651785714285722</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.1547</v>
-      </c>
-      <c r="I6" s="1">
-        <v>3</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="I6" s="8">
         <f t="shared" si="0"/>
         <v>13.214285714285714</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
       <c r="B7" s="1">
+        <v>1.38E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.23E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.4839</v>
+      </c>
+      <c r="E7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
-        <v>1.38E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2.23E-2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.4839</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="F7" s="8">
+        <f>(D7-B7)/C7</f>
+        <v>65.923766816143498</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="H7" s="1">
         <v>6</v>
       </c>
-      <c r="G7" s="8">
-        <f>(E7-C7)/D7</f>
-        <v>65.923766816143498</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="I7" s="1">
-        <v>6</v>
-      </c>
-      <c r="J7" s="8">
+      <c r="I7" s="8">
         <f t="shared" si="0"/>
         <v>8.304932735426009</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>10</v>
+      </c>
       <c r="B8" s="1">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.1358999999999999</v>
+      </c>
+      <c r="E8" s="1">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
-        <v>3.3099999999999997E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5.5399999999999998E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2.1358999999999999</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F9" si="1">(D8-B8)/C8</f>
+        <v>37.95667870036101</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.26119999999999999</v>
+      </c>
+      <c r="H8" s="1">
         <v>10</v>
       </c>
-      <c r="G8" s="8">
-        <f t="shared" ref="G8:G9" si="1">(E8-C8)/D8</f>
-        <v>37.95667870036101</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.26119999999999999</v>
-      </c>
-      <c r="I8" s="1">
-        <v>10</v>
-      </c>
-      <c r="J8" s="8">
+      <c r="I8" s="8">
         <f t="shared" si="0"/>
         <v>4.1173285198555956</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>20</v>
+      </c>
       <c r="B9" s="1">
+        <v>0.14979999999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.22850000000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.8220000000000001</v>
+      </c>
+      <c r="E9" s="1">
         <v>20</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.14979999999999999</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.22850000000000001</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1.8220000000000001</v>
-      </c>
-      <c r="F9" s="1">
-        <v>20</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="F9" s="8">
         <f t="shared" si="1"/>
         <v>7.3181619256017507</v>
       </c>
+      <c r="G9" s="1">
+        <v>0.37630000000000002</v>
+      </c>
       <c r="H9" s="1">
-        <v>0.37630000000000002</v>
-      </c>
-      <c r="I9" s="1">
         <v>20</v>
       </c>
-      <c r="J9" s="8">
+      <c r="I9" s="8">
         <f t="shared" si="0"/>
         <v>0.99124726477024083</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K10" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Projet_final.xlsx
+++ b/Projet_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanto\Université Laval\OptiqueExperimentale_FB_FAD_PHY5 - General\labV_projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DD14F11-4DFD-4280-AF6E-20B7BB712D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93E553F3-EF82-4953-AEDA-86FA775A6B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Partie 1" sheetId="1" r:id="rId1"/>
@@ -360,6 +360,980 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Partie 3a'!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>79.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Partie 3a'!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60219999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2646000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9427000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5136000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2503</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0028999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-19CC-4E00-8B83-E8D753B68E94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="761187471"/>
+        <c:axId val="761216271"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="761187471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="761216271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="761216271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="761187471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>630152</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>202605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>636721</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>130534</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{566572E7-AE1B-EB4E-E096-2A2275B6A455}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -650,9 +1624,7 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -701,7 +1673,7 @@
       <c r="E2" s="11">
         <v>1.8E-3</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="11">
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
@@ -722,8 +1694,9 @@
       <c r="E3" s="11">
         <v>0.7147</v>
       </c>
-      <c r="F3">
-        <v>6.8999999999999999E-3</v>
+      <c r="F3" s="11">
+        <f t="shared" ref="F3:F11" si="1">H3-E3</f>
+        <v>6.9000000000000172E-3</v>
       </c>
       <c r="H3" s="22">
         <v>0.72160000000000002</v>
@@ -746,8 +1719,9 @@
       <c r="E4" s="11">
         <v>1.3274999999999999</v>
       </c>
-      <c r="F4">
-        <v>6.4000000000000003E-3</v>
+      <c r="F4" s="11">
+        <f t="shared" si="1"/>
+        <v>6.4000000000001833E-3</v>
       </c>
       <c r="H4" s="22">
         <v>1.3339000000000001</v>
@@ -770,8 +1744,9 @@
       <c r="E5" s="11">
         <v>1.8844000000000001</v>
       </c>
-      <c r="F5">
-        <v>9.1999999999999998E-3</v>
+      <c r="F5" s="11">
+        <f t="shared" si="1"/>
+        <v>9.1999999999998749E-3</v>
       </c>
       <c r="H5" s="22">
         <v>1.8935999999999999</v>
@@ -794,8 +1769,9 @@
       <c r="E6" s="11">
         <v>2.5638999999999998</v>
       </c>
-      <c r="F6">
-        <v>1.34E-2</v>
+      <c r="F6" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3400000000000301E-2</v>
       </c>
       <c r="H6" s="23">
         <v>2.5773000000000001</v>
@@ -818,8 +1794,9 @@
       <c r="E7" s="11">
         <v>2.9095</v>
       </c>
-      <c r="F7">
-        <v>0.17699999999999999</v>
+      <c r="F7" s="11">
+        <f t="shared" si="1"/>
+        <v>1.7700000000000049E-2</v>
       </c>
       <c r="H7" s="23">
         <v>2.9272</v>
@@ -842,8 +1819,9 @@
       <c r="E8" s="11">
         <v>3.0674000000000001</v>
       </c>
-      <c r="F8">
-        <v>0.20300000000000001</v>
+      <c r="F8" s="11">
+        <f t="shared" si="1"/>
+        <v>2.0299999999999763E-2</v>
       </c>
       <c r="H8" s="23">
         <v>3.0876999999999999</v>
@@ -866,8 +1844,9 @@
       <c r="E9" s="11">
         <v>3.1438000000000001</v>
       </c>
-      <c r="F9">
-        <v>0.222</v>
+      <c r="F9" s="11">
+        <f t="shared" si="1"/>
+        <v>2.2199999999999775E-2</v>
       </c>
       <c r="H9" s="23">
         <v>3.1659999999999999</v>
@@ -890,8 +1869,9 @@
       <c r="E10" s="11">
         <v>3.1817000000000002</v>
       </c>
-      <c r="F10">
-        <v>0.23</v>
+      <c r="F10" s="11">
+        <f t="shared" si="1"/>
+        <v>2.2999999999999687E-2</v>
       </c>
       <c r="H10" s="23">
         <v>3.2046999999999999</v>
@@ -914,8 +1894,9 @@
       <c r="E11" s="11">
         <v>3.2122999999999999</v>
       </c>
-      <c r="F11">
-        <v>0.23400000000000001</v>
+      <c r="F11" s="11">
+        <f t="shared" si="1"/>
+        <v>2.3400000000000087E-2</v>
       </c>
       <c r="H11" s="23">
         <v>3.2357</v>
@@ -1193,7 +2174,9 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1429,6 +2412,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1439,7 +2423,9 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1510,9 +2496,8 @@
       <c r="E3" s="10">
         <v>0</v>
       </c>
-      <c r="F3" s="11">
-        <f t="shared" ref="F3:F9" si="0">(D3-B3)/C3</f>
-        <v>261.61111111111109</v>
+      <c r="F3" s="13">
+        <v>261.61111</v>
       </c>
       <c r="G3" s="11">
         <v>0.16209999999999999</v>
@@ -1520,9 +2505,8 @@
       <c r="H3" s="10">
         <v>0</v>
       </c>
-      <c r="I3" s="11">
-        <f t="shared" ref="I3:I9" si="1">(G3-B3)/C3</f>
-        <v>44.527777777777779</v>
+      <c r="I3" s="13">
+        <v>44.52778</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -1541,8 +2525,7 @@
       <c r="E4" s="10">
         <v>1</v>
       </c>
-      <c r="F4" s="11">
-        <f t="shared" si="0"/>
+      <c r="F4" s="13">
         <v>196.1875</v>
       </c>
       <c r="G4" s="11">
@@ -1551,9 +2534,8 @@
       <c r="H4" s="10">
         <v>1</v>
       </c>
-      <c r="I4" s="11">
-        <f t="shared" si="1"/>
-        <v>32.333333333333336</v>
+      <c r="I4" s="13">
+        <v>32.333329999999997</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -1572,9 +2554,8 @@
       <c r="E5" s="10">
         <v>2</v>
       </c>
-      <c r="F5" s="11">
-        <f t="shared" si="0"/>
-        <v>115.38461538461539</v>
+      <c r="F5" s="13">
+        <v>115.38462</v>
       </c>
       <c r="G5" s="11">
         <v>0.15609999999999999</v>
@@ -1582,9 +2563,8 @@
       <c r="H5" s="10">
         <v>2</v>
       </c>
-      <c r="I5" s="11">
-        <f t="shared" si="1"/>
-        <v>19.435897435897434</v>
+      <c r="I5" s="13">
+        <v>19.4359</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -1603,9 +2583,8 @@
       <c r="E6" s="10">
         <v>3</v>
       </c>
-      <c r="F6" s="11">
-        <f t="shared" si="0"/>
-        <v>88.651785714285722</v>
+      <c r="F6" s="13">
+        <v>88.651790000000005</v>
       </c>
       <c r="G6" s="11">
         <v>0.1547</v>
@@ -1613,9 +2592,8 @@
       <c r="H6" s="10">
         <v>3</v>
       </c>
-      <c r="I6" s="11">
-        <f t="shared" si="1"/>
-        <v>13.214285714285714</v>
+      <c r="I6" s="13">
+        <v>13.21429</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -1634,9 +2612,8 @@
       <c r="E7" s="10">
         <v>6</v>
       </c>
-      <c r="F7" s="11">
-        <f t="shared" si="0"/>
-        <v>65.923766816143498</v>
+      <c r="F7" s="13">
+        <v>65.923770000000005</v>
       </c>
       <c r="G7" s="11">
         <v>0.19900000000000001</v>
@@ -1644,9 +2621,8 @@
       <c r="H7" s="10">
         <v>6</v>
       </c>
-      <c r="I7" s="11">
-        <f t="shared" si="1"/>
-        <v>8.304932735426009</v>
+      <c r="I7" s="13">
+        <v>8.3049300000000006</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -1665,9 +2641,8 @@
       <c r="E8" s="10">
         <v>10</v>
       </c>
-      <c r="F8" s="11">
-        <f t="shared" si="0"/>
-        <v>37.95667870036101</v>
+      <c r="F8" s="13">
+        <v>37.956679999999999</v>
       </c>
       <c r="G8" s="11">
         <v>0.26119999999999999</v>
@@ -1675,9 +2650,8 @@
       <c r="H8" s="10">
         <v>10</v>
       </c>
-      <c r="I8" s="11">
-        <f t="shared" si="1"/>
-        <v>4.1173285198555956</v>
+      <c r="I8" s="13">
+        <v>4.1173299999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -1696,9 +2670,8 @@
       <c r="E9" s="10">
         <v>20</v>
       </c>
-      <c r="F9" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3181619256017507</v>
+      <c r="F9" s="13">
+        <v>7.3181599999999998</v>
       </c>
       <c r="G9" s="11">
         <v>0.37630000000000002</v>
@@ -1706,9 +2679,8 @@
       <c r="H9" s="10">
         <v>20</v>
       </c>
-      <c r="I9" s="11">
-        <f t="shared" si="1"/>
-        <v>0.99124726477024083</v>
+      <c r="I9" s="13">
+        <v>0.99124999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/Projet_final.xlsx
+++ b/Projet_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanto\Université Laval\OptiqueExperimentale_FB_FAD_PHY5 - General\labV_projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93E553F3-EF82-4953-AEDA-86FA775A6B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64A7BF4E-E347-42C4-A613-C66A28AB791A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
